--- a/src/attributions/attributions_ig_traj_171.xlsx
+++ b/src/attributions/attributions_ig_traj_171.xlsx
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.3938022143261778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
@@ -1016,49 +1016,49 @@
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2112361095505576</v>
+        <v>0.04868411991929447</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09809642520125268</v>
+        <v>-0.3050520701042835</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1588654081330463</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2690133259723669</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1888602742630499</v>
+        <v>0.05114917149819505</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1255439125264524</v>
+        <v>-0.2259740445513439</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1197660286669407</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0.2296103360869784</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,25 +1067,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.05940822858580774</v>
+        <v>0.1245000793392414</v>
       </c>
       <c r="X2" t="n">
         <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0713415218249748</v>
+        <v>-0.09721794667373065</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.00545247818203431</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.09598937454672077</v>
       </c>
       <c r="AC2" t="n">
         <v>-0</v>
@@ -1097,76 +1097,76 @@
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1072883084060055</v>
+        <v>0.07268199537749538</v>
       </c>
       <c r="AG2" t="n">
         <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.02152825806403482</v>
+        <v>-0.04767760583578441</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.007494863637742933</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0.04519693265382037</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0812431174997431</v>
+        <v>0.03864110750369897</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01556002152359202</v>
+        <v>-0.0978378742302646</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0443340949810794</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.3971574863018135</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.05509394270431852</v>
+        <v>0.07457676493489084</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02402076214994024</v>
+        <v>-0.1586782494568163</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.2081591278598103</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>0.1800111163786079</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1178,49 +1178,49 @@
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.2521799855205292</v>
+        <v>0.05512854432142648</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.08063115226880981</v>
+        <v>-0.2476265283158801</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.01387236199782059</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>0.07686050923880729</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.04828861369123744</v>
+        <v>0.08029671892190467</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0287825740480652</v>
+        <v>0.004535525175122443</v>
       </c>
       <c r="BS2" t="n">
         <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.08391545440028261</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>0.1389908877275317</v>
       </c>
       <c r="BV2" t="n">
         <v>-0</v>
@@ -1232,211 +1232,211 @@
         <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.03755331270042719</v>
+        <v>-0.01807240370399503</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01715689683961842</v>
+        <v>-0.06561732365814493</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.05222159195484271</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0.121212647800344</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.05955081905101346</v>
+        <v>-0.02849564958752479</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.02077940739965326</v>
+        <v>0.1438264160316918</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.03235868676084512</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>-0.06021880792591472</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0868365590950079</v>
+        <v>-0.09760165580647215</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.04548721736259217</v>
+        <v>0.1032967514534912</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.04482080685431006</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0</v>
+        <v>-0.09247055509656449</v>
       </c>
       <c r="CW2" t="n">
         <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.04130143804145445</v>
+        <v>-0.007590221591635965</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01774152032841548</v>
+        <v>0.1371440541260591</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.02379455395671466</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0.03511313511746859</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0009263387219055333</v>
+        <v>0.002197943831781576</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.01783529057993301</v>
+        <v>0.05666330533067102</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.05349389825403656</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>-0.07819614177297413</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05675018548176519</v>
+        <v>-0.1258896115902789</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.01529245360743364</v>
+        <v>0.1017136790890469</v>
       </c>
       <c r="DU2" t="n">
         <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.069329272828815</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>-0.09222924948158027</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02578319845194349</v>
+        <v>-0.1192997935037226</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.03947450754035271</v>
+        <v>0.1501365509168263</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.03978521096196824</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0.1185445022089335</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1393595636621967</v>
+        <v>0.1461507086311469</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.02449953990996506</v>
+        <v>0.01636510873211273</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0252862046994367</v>
+        <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0.0956002320284447</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,219 +1445,219 @@
         <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.1302477697782403</v>
+        <v>-0.1587497387724906</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.05890969219029153</v>
+        <v>-0.04383919451510769</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0660401685968071</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0.08744727400540719</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.05585212474587503</v>
+        <v>-0.02915083972522742</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.02603907243875615</v>
+        <v>0.126553351680475</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.04629932175449918</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>0.03105626285079227</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
         <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.000172301438667081</v>
+        <v>-0.05796907862176165</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.04223220695531877</v>
+        <v>-0.1401273990284627</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.02456804318490633</v>
+        <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>-0.05432549592034229</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.09358987427390082</v>
+        <v>-0.1591113889600599</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.07124827639734603</v>
+        <v>0.1105658327332261</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.08732975814555391</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0</v>
+        <v>0.02057975559658688</v>
       </c>
       <c r="FZ2" t="n">
         <v>-0</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.05417069932262995</v>
+        <v>-0.09944329364667712</v>
       </c>
       <c r="GF2" t="n">
         <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.08093620757129033</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5329797133767372</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>-0.2894843396322407</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1022045534932174</v>
+        <v>0.006580024302947555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.704293921453623</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04833975261322798</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.479413771734053</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>-0.1608686701784171</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.182265517321559</v>
+        <v>-0.02370372674238558</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0.5904326017846143</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.05760332018687978</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.01386315061020756</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0.02513059754099996</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.06534052178643751</v>
+        <v>0.07563394814976175</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.1266969136384135</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.04830738571059605</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01680869570701581</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>-0.2062835709664396</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
@@ -1666,52 +1666,52 @@
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.05863933461803145</v>
+        <v>-0.002773127849136634</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0.06300508280077848</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09626520622683729</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1286407331026477</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0.09159870301380431</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0679289434422278</v>
+        <v>-0.1994180907135524</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.2107628036890458</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01417534060212389</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3321350533310366</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0.3724360538563026</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02743021105638472</v>
+        <v>0.1253263858627205</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.741375679814274</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.07765837120459525</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
@@ -1735,199 +1735,199 @@
         <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2018813059713121</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>-0.1177606760966242</v>
       </c>
       <c r="BE3" t="n">
         <v>-0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.09299836042908614</v>
+        <v>0.1095284455060586</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0.02145688132860294</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.08869651206431448</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.07245425473706064</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.1393056225404845</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1083971590062986</v>
+        <v>0.06192919826469847</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.05875995075331611</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04049418393678138</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1726629826904867</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0.07812139223712557</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0001105575310526138</v>
+        <v>0.09131781014201998</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>0.2338964749073431</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.002864338140857872</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.1559980973829313</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>0.1359111806249459</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.03590440897785441</v>
+        <v>-0.002821803880350757</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>-0.147747936360737</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02548748980621682</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.05371370201517946</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.00573229374159587</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1088390109384859</v>
+        <v>-0.1559309909679938</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.05030099512793456</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.02425541254321813</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.1443127697444217</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0.1081971623401299</v>
       </c>
       <c r="CX3" t="n">
         <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.01071576718377402</v>
+        <v>0.003328394640530784</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0.1867182911613391</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.02242229064613092</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.007214336861391816</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.03172402534234121</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.0450361155808381</v>
+        <v>-0.008418701884115587</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.04088772470950795</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.002655611553704843</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01138831879921341</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.005395591247767693</v>
       </c>
       <c r="DP3" t="n">
         <v>-0</v>
@@ -1936,190 +1936,190 @@
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.08540526938627135</v>
+        <v>-0.03287856468360251</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.06564826704492548</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.01413012629866725</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.03538573305092117</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0.09633524897025886</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.02935215954573159</v>
+        <v>-0.05124235679224277</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>-0.1201960475642312</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0269445615441752</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.2128262345101833</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>0.05764070960305256</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04776674268656469</v>
+        <v>-0.1085285629109779</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0.1055066321527088</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.06824584534866637</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.05196852279296869</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.09734299224101295</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.1681156580396018</v>
+        <v>-0.06285004637983321</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>0.07581983674180601</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.03829961324040573</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.1493760115438628</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>0.0974684485810203</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0009833857827127744</v>
+        <v>-0.008364770262872174</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>-0.1520082243709805</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.02390530133963138</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1188682778514654</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0.03723938255965383</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.07565835098693538</v>
+        <v>-0.02777524466975322</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.1462352520229984</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.05998834847621527</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0219096385855677</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.1022636598140699</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.04304734654643403</v>
+        <v>-0.19814909065548</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.06214063412688727</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.04764831805017952</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.03202192225973214</v>
+        <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.01992160324238639</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.09975216806945505</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.01662037777835463</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
@@ -2142,25 +2142,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3519830237703737</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.2755258249281843</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2008325900420863</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06717069762978091</v>
+        <v>-0.06492836816048551</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.204497133225938</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
@@ -2169,25 +2169,25 @@
         <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3440384915534805</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.2394854609441788</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1624222674254783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.09364122268727194</v>
+        <v>-0.00970790053260227</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.1432068252116536</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
@@ -2196,103 +2196,103 @@
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01952931626243359</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.02571055178553928</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.05446635334179623</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1375099236008737</v>
+        <v>-0.04328334879629617</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.002470851453459564</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03078913952069056</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>-0.01158050473226523</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01199245384661481</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.06647109191790385</v>
+        <v>0.001070190356738853</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.03081253672139382</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.09351124279742622</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.03161417360884488</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.04378291775652622</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.04535528151502195</v>
+        <v>-0.0183896328089442</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.06362833186277897</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.2061143886822508</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.2061149687676839</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.1949258801505543</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.05178219589441135</v>
+        <v>-0.05133443669933167</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.1431815344385163</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2304,76 +2304,76 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.06169212422481371</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.07525200905589015</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.06546518059435007</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1166293244346362</v>
+        <v>-0.05893207595619136</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.08903067774101013</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.01207570461419988</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.06008887002168575</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0784832921112764</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1451895789536614</v>
+        <v>0.02767248257505334</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.01948861954788203</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1251396525347148</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.0725249700044187</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.04310274560845431</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.00770822167938195</v>
+        <v>-0.01917982713248319</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.02567385600338756</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,25 +2382,25 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.1006159559526438</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.05646449051392896</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.05232049521750702</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01265443195213152</v>
+        <v>-0.003965315100631192</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.05767913336282289</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
@@ -2412,49 +2412,49 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.01488177325335477</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.002615165114181482</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.02416706713038604</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.04740526169399607</v>
+        <v>-0.001456018823493317</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.0437817946841828</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.09211329172947101</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.05101108946540956</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.05049776123266756</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02459566246263938</v>
+        <v>0.002304887530023189</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.06143717171175294</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
@@ -2466,130 +2466,130 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.00570636595342603</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>0.007061867433795261</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.03374662212371823</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.02509128220227935</v>
+        <v>0.0811188553538793</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>2.845195236035354e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.001718725443241447</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.02867783031109391</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.04744797548171987</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.05513375032149583</v>
+        <v>0.01433278288697825</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01105013427159111</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.01488297532677893</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.05137517834268427</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.0032606898313175</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01537767682918572</v>
+        <v>0.02718044773268719</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.03947245291474771</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.1544117412675497</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.05248015543422756</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.06662857393563182</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.01584168916268323</v>
+        <v>0.01539468396701377</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.06455462074961942</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.05526399329763044</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.03434589067990546</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.03456979401746633</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.01615440935668087</v>
+        <v>-0.01263472047024843</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>-0.01302188632892642</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.09253400455328561</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.04944928083076845</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.04561818925967251</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.01741050462535541</v>
+        <v>0.00466098849454194</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.05740051153665914</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
@@ -2628,67 +2628,67 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.06733309552615339</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>-0.01390280895665056</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.06550507458306687</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
         <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.03632390367959762</v>
+        <v>0.005721239776736639</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.03089961845139688</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.002501069997966652</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.004318561172450252</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0296869115556719</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
         <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02937598880235529</v>
+        <v>-0.02830880490512632</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03562895596549798</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.02731905019042081</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.0009116652555951593</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.03818727328016232</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.0119843347930833</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2686096105316914</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.3694532871327955</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0400282480593308</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.1201493077321622</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04570336205739751</v>
+        <v>-0.106078842256138</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.06317956264779863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01521357561759846</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2738,25 +2738,25 @@
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2613707699078061</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.301358449371957</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03549651416376768</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.07613095210577185</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1142941909234098</v>
+        <v>-0.05791112078894675</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.06611399102013746</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.009982312647185018</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,133 +2765,133 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01946783899382375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.07079111034847746</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02526737677343895</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.02017491081063709</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1000860747068614</v>
+        <v>0.08124882569074741</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.006748867212271283</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.07934683086641407</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01101710046380824</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.04886617283242344</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03716416410990414</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>0.01998521909183749</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01750015536071067</v>
+        <v>-0.02584883717397595</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-0.01934232954904554</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.06595352177469985</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05132475519398162</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.01425278365764937</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.003396504135270025</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0.05885032735386687</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02439403456807372</v>
+        <v>-0.0596792208175272</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.03734451094494778</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01104047616941708</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1421723749188138</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.3238331730917484</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.03881364267865749</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>-0.04324848198620739</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.0004748741758000575</v>
+        <v>0.02937239900335384</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>0.04375711516681704</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04344348694954848</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.06781812623699633</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.05167348632288866</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.01415106971338376</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.07955093118622197</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.009313412739335508</v>
+        <v>-0.1116914058386765</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>-0.08414606449034499</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.006958827479430258</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2900,52 +2900,52 @@
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.03654433992012254</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.08000416037114691</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02300333034917077</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.05586068237683024</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.07859354985937884</v>
+        <v>0.1194637593794258</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.03031989054633144</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01700994949237936</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.06811438831916981</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.08673212658926806</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.006884199774753854</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.004593398800621502</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.006636238647013147</v>
+        <v>0.0112214419673465</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0.006185778035645527</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.003392886923541378</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,52 +2954,52 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.06949573405487852</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.07796029241944803</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.01331567559718463</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0.004703188963560567</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0127044945290034</v>
+        <v>-0.0003753740793287614</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.03129531144653609</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.01106731509879966</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.008294840151019287</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.003379435663676963</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.005159992522529433</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.06312649354337084</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.06841563623165195</v>
+        <v>-0.08108015070047044</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.05087378597665723</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.03146581493207815</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3008,324 +3008,324 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.063349126747617</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.059855303919773</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01783419085386842</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>0.03183717778404103</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01519215977111556</v>
+        <v>0.002623548317212002</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.03268192620317573</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.003966457192558599</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003436117248390349</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.0150351806050066</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.008034360814372601</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.0564800070019654</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.001185803148283755</v>
+        <v>-0.005448230357230063</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.02160291818655201</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0.009433142718365015</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02085478021101186</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.0128089280286045</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.002697602376246454</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.06238227727532547</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.008970288741263309</v>
+        <v>-0.02187132213573931</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>0.02726149558088034</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.04469670743222606</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.0036441802783257</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.04829024479286884</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.01781198266288495</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.0241358802354509</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.007547591873952839</v>
+        <v>0.0342973578962124</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.05845071095831052</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.004989211929396739</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1140155062882809</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.08772061378131157</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.004261883906871992</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.03882054561856284</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01190097681166341</v>
+        <v>0.06614520598718032</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.02208907225157403</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.02830087661789975</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.02270655882317666</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03981605130173743</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0161625320156208</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.007158178357422127</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04086425270303828</v>
+        <v>0.02468534606957337</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.03358515721009882</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.008364618051378843</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.06060576206064296</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.06065417263721548</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.01579425968877314</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0.004564047750212546</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.007530824116166902</v>
+        <v>0.01401243305891759</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.03741622161092956</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.004725327725959881</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.07051712722665333</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.02967019244927751</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.03734210259201032</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>0.05619489250679095</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.05077453609994403</v>
+        <v>0.01414901746846079</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>-0.008732920427275265</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.01793039011602049</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.003841147030682641</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.004005238507743286</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.007976656962058112</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.01703143380890867</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.009967899215637994</v>
+        <v>-0.03725680590032083</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>0.03919955839753179</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.005665157952338796</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.05412016406899627</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.04031895800977078</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.01478600127814669</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.07569762397205471</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0.04165466825632142</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.03024457332408034</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1870535057448654</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.3438116639870767</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.06668499094194343</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05314347560250852</v>
+        <v>-0.0364752059208738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03343702226821802</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.184056280021716</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.2323967045121962</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.09179077263011975</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.08745255750903509</v>
+        <v>-0.04690605313107066</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008148226172228483</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3334,25 +3334,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00535767453150964</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.08384865396667288</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.04808717573136204</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03761538948502875</v>
+        <v>0.1302540369275459</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.05467553233697669</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -3361,25 +3361,25 @@
         <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.03001346904342116</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1021263351355602</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>0.002319977227769498</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01908012578263262</v>
+        <v>-0.05504551930785918</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.04584227470027583</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3388,160 +3388,160 @@
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03406873242407736</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0.0440260401992733</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.05345836035298392</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01233588934728</v>
+        <v>-0.02217558500385006</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01316167973102379</v>
+        <v>-0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1073186878855607</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.3183908640638838</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0.1359442842659188</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.01333856707278116</v>
+        <v>0.1518271900009334</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.02713663909338267</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.04463443697828138</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02185101578438996</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0.1623377606079976</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.003503845042980482</v>
+        <v>-0.1230685023028073</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.01877822902785134</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.03031624660560772</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.07898677758722253</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0.007315093255475858</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.04157125468401954</v>
+        <v>0.1919122380428723</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.01395715943870549</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.04474302154887654</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.09011057133532482</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.0357838536480021</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.009078093416346229</v>
+        <v>0.06454587293008848</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.005184526312814535</v>
+        <v>-0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.05176558211088444</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.08206121575279821</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0</v>
+        <v>-0.0203963756565792</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01169380870374418</v>
+        <v>-0.006300761843916369</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.0132620340223091</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,79 +3550,79 @@
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.008926956194852988</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.02187097891290269</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>-0.1317712049625057</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.04706583843323166</v>
+        <v>-0.1063684947281441</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.01895158450411793</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04574063024270707</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.05614421835079308</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.0006052411601386537</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.003374054819932769</v>
+        <v>-0.01317283812819755</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.007646928175938384</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.002059091311020729</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.04278183918028314</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.03334621375761366</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.005104169158275456</v>
+        <v>0.02206517767788532</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0.01070586922063704</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
         <v>0</v>
@@ -3631,79 +3631,79 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.0001834088910365105</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.05080086482455457</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>0.04777858819569205</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.02991445639507433</v>
+        <v>-0.04271040790145936</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.0293589655851244</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.002535752311797666</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.02947476765106043</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>-0.03289909360897093</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01485805836439495</v>
+        <v>-0.009759899830155542</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.002311797205709945</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.07532538759141066</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.07423666022869602</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>-0.009668036159286261</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.005190088296121402</v>
+        <v>0.08872154828900254</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.02819372487540027</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3712,25 +3712,25 @@
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.01175857546059475</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.02431342131128654</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>0.0211258344564127</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04755427146341923</v>
+        <v>0.02315041085613775</v>
       </c>
       <c r="ET6" t="n">
         <v>0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.003598194959139309</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,132 +3739,132 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.04422232069859834</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.05731144194823702</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0.03122942534572026</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.002218805484653781</v>
+        <v>0.006817645584025781</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.007926101163918545</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.04449069803355469</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.008675601325849625</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.001945876880924079</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0346187130996196</v>
+        <v>0.02869794252845428</v>
       </c>
       <c r="FL6" t="n">
         <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.009501356342190964</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.0007448840314099133</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.002210654611916264</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>0.02217272212118767</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.003018452084525886</v>
+        <v>-0.004905419685142409</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.001795256668351111</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02531411782738074</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.01287889391507899</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.1154313790071256</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.01968439432612867</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4035618551966523</v>
+        <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.3315543892809102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6376137256767257</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
         <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1161152726343686</v>
+        <v>0.07666755896090115</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.033044029201602</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
@@ -3873,25 +3873,25 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4329195538138631</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.2935583711115533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7089323361839115</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
         <v>-0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1830920674337206</v>
+        <v>-0.07009031831491096</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0.8574417820790873</v>
       </c>
       <c r="P7" t="n">
         <v>-0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0339102447808431</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0.005335767159138302</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08203362399935021</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>-0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1941321050452416</v>
+        <v>0.1604568618313796</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.1492988004105616</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,25 +3927,25 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02961535411551807</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0.01367738674115263</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.002444184699257734</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.04522505676168503</v>
+        <v>0.04846916225135422</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0.03838207396274902</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
@@ -3954,28 +3954,28 @@
         <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.1358899503350648</v>
+        <v>-0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>-0.03474040686563112</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.09616079781420141</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.06053928693148964</v>
+        <v>-0.0224477170635593</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.1700032004544386</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
         <v>-0</v>
@@ -3984,79 +3984,79 @@
         <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.1966895766869939</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>-0.2221876145571115</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.4272185705672964</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1716617355102366</v>
+        <v>0.2734928770113581</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0.7825007548973365</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.06430451600230722</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.1171302075292977</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.099589789087662</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
         <v>-0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.2487320758853074</v>
+        <v>0.05348463471216348</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>0.1865724259514154</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.05938201554442409</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>-0.1720882433597597</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.1260347853237924</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.2668671780202982</v>
+        <v>-0.05748596741152587</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.08571816072910454</v>
       </c>
       <c r="BR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
         <v>-0</v>
@@ -4065,22 +4065,22 @@
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.2009754870237375</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>-0.1087602545934374</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1797642000335577</v>
+        <v>-0</v>
       </c>
       <c r="BX7" t="n">
         <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.01151885205112118</v>
+        <v>0.09823411546148268</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>0.2721891536069246</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
@@ -4092,22 +4092,22 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1435759116316105</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>0.07861483346028969</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.1330446319126052</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
         <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.04941542825283567</v>
+        <v>-0.05135513785207683</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>-0.2043129677907541</v>
       </c>
       <c r="CJ7" t="n">
         <v>0</v>
@@ -4116,28 +4116,28 @@
         <v>-0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.009204782162926641</v>
+        <v>-0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.0514453918371791</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.06423375206486726</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1038164467898735</v>
+        <v>-0.2593940484279468</v>
       </c>
       <c r="CR7" t="n">
-        <v>0</v>
+        <v>-0.03063390755282392</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
         <v>0</v>
@@ -4146,49 +4146,49 @@
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.1372316376278165</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>0.05908299028522825</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.1183333728058876</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.05015285760683442</v>
+        <v>-0.03623008007098741</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0.2062664070779253</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.02774727850079229</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>0.04141135020070766</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.1565433370668858</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.02886250519401868</v>
+        <v>-0.0905901842875516</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0.07402491111291939</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
@@ -4197,25 +4197,25 @@
         <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.002525111520498352</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.02820244492951384</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.05888342272804467</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
         <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1835831904319682</v>
+        <v>-0.1019373597298211</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0.08235226720640965</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
@@ -4224,55 +4224,55 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02447951003471785</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.08015565888284445</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01486369045507602</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01785324450675431</v>
+        <v>-0.05666788756798959</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>-0.1225630172305461</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.22670197493977</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>0.05561377214507678</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.1574190688478013</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
         <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.05903874724851807</v>
+        <v>-0.02504866241739046</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>-0.1211240756501744</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>-0</v>
@@ -4281,22 +4281,22 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.05716423834178478</v>
+        <v>-0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>0.01483852739103692</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0736775905895841</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
         <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.07623849220044783</v>
+        <v>-0.0317136911513799</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0.01109326151239741</v>
       </c>
       <c r="EU7" t="n">
         <v>0</v>
@@ -4305,115 +4305,115 @@
         <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.1448148628459108</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>0.0369122329486032</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.1246164964231661</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02787783990446913</v>
+        <v>-0.0647371640167072</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0.1767849880194736</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE7" t="n">
         <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.1104653423433744</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04842237741095196</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.1551591195238591</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
         <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.09663145007921578</v>
+        <v>-0.01737408666937787</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>-0.1552452505490127</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
         <v>-0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0003694368315038177</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.005672900845261564</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.06407087110630691</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>2.387910360651698e-05</v>
+        <v>0.008225056864448643</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>-0.2052803311436839</v>
       </c>
       <c r="FV7" t="n">
         <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
         <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>-0.005044001468847438</v>
+        <v>0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06256832481173993</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.09799985293161156</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC7" t="n">
         <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>0.00233280559055606</v>
       </c>
       <c r="GE7" t="n">
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,73 +4421,73 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.666877792282639</v>
       </c>
       <c r="C8" t="n">
-        <v>1.241250379385833</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2016184713885034</v>
+        <v>-0.01734619152356717</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.832647884736646</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.006218621665927</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.5830538301467535</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45447439243728</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5804532145360867</v>
+        <v>0.03681076055061933</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.6807683665932025</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.082893582200921</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.05347593031280914</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04586260880954273</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1178439953737072</v>
+        <v>-0.05489386199670537</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.1131082735367728</v>
       </c>
       <c r="Y8" t="n">
         <v>-0</v>
@@ -4496,52 +4496,52 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1082060736619155</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.1221656106063273</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.1044108088957662</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0702465403269277</v>
+        <v>0.05399033860117941</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>0.06211675020189908</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2303450386464214</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0.05753555440308916</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2211355666591181</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.1329405569919622</v>
+        <v>0.06692468641435227</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.1510550103319466</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -4550,52 +4550,52 @@
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.01423950141271801</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0</v>
+        <v>0.4012210113325229</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.712771895512548</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.07988846941570972</v>
+        <v>0.01306373595801226</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.5503145890794698</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.4044481816142921</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.1735334416913395</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.3539434473069501</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.04977866804600264</v>
+        <v>-0.1067608278672856</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.1680232339083514</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
@@ -4604,79 +4604,79 @@
         <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.2519927142922068</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.1556789339865939</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.2885350157830774</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
         <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.307267823547957</v>
+        <v>-0.0146194061496221</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>-0.05649260644983728</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.1399303505560169</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.2012630801908264</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.3745136460494132</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>-0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.01275369488450088</v>
+        <v>-0.0133257623008405</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.2780819243863177</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.4369802563512211</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.1223278527839813</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.2291357630618253</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.07958302711302974</v>
+        <v>-0.005254409864869247</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.1166734183213457</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4685,52 +4685,52 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.1304413540297892</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.03203105746107171</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.004643271455117589</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1204279251857751</v>
+        <v>0.05774787397121428</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.03359273767830079</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.1143252792113953</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.1011671876862124</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.1999629684482595</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01073342844916617</v>
+        <v>-0.02000480567697621</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.1152215963757141</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4739,25 +4739,25 @@
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.1534637072120688</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.1182314721727722</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.2727702626344473</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.01686372288127692</v>
+        <v>0.0926421827238085</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.2106009833430011</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,25 +4766,25 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.09873314319933166</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.0650262641083721</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.07438175008789975</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.03534672667299329</v>
+        <v>0.01764735801618293</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.09823997440730246</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
@@ -4793,25 +4793,25 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.07353114129232963</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>-0.06208792487795206</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.1604592153328531</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.06011196744378967</v>
+        <v>0.05390000122820674</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.1122000894311024</v>
       </c>
       <c r="EC8" t="n">
         <v>-0</v>
@@ -4820,133 +4820,133 @@
         <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.08649526349311006</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0</v>
+        <v>-0.07026254395707772</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.2789288098875082</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
         <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.2191009743564345</v>
+        <v>0.03001384433022367</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0</v>
+        <v>0.003749114743894364</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0.08166474518125197</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>0.04986972815706415</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.08623444354081346</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.04173495308156572</v>
+        <v>0.04334645757282828</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>-0.05738573424440058</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.2356003546272637</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.1014138461645648</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.2233619225270963</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.06199764888437628</v>
+        <v>-0.003386850940089787</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.1088160320204838</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.2111297383005915</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.03453703976720383</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.2334659882704628</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.05272670271557267</v>
+        <v>-0.03300842387970353</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.1145182047420687</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.01607870817924923</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.0108966448489025</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.1117146889328761</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.1885810840568201</v>
+        <v>0.140430721209814</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.1777522919048</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
@@ -4955,78 +4955,78 @@
         <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1693491699645522</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.04727438391383657</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.2303357829004531</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.1039745515608788</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.06557747044274909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2045139525627961</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3815591499003186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3640286590089847</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>-0.04031820273067106</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.178345207728835</v>
+        <v>-0.1372862478133693</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2018782274308891</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2435578500743352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3836146829344383</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>-0.05174992223808234</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02348809241585406</v>
+        <v>-0.1157256571373122</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5038,28 +5038,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01596242118458868</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.07085902158143438</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06869463354041722</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0</v>
+        <v>-0.008882736592941261</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08940224029027181</v>
+        <v>0.04507021695259513</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -5068,79 +5068,79 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.00255513980684334</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.03407889997012099</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0624107229426498</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.01273148610218255</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.07103869067513449</v>
+        <v>-0.01709980036681078</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.08330674782849479</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.001000983457054746</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.06355684240926687</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>-0.04944051060127548</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.007303737106262944</v>
+        <v>-0.06932520049972174</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.1334939243154188</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.2604126056039317</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.201777227337612</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.05322798495097165</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.06655373251133979</v>
+        <v>0.03162657731251656</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
@@ -5149,154 +5149,154 @@
         <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.05370205441138085</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.02234415291684705</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.08495434804976479</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.08897726345042128</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.1829016569237571</v>
+        <v>-0.1265616280370284</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.04148319202585963</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.09905711066796725</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.05769246188563237</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.03361156205481524</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.08220804700460743</v>
+        <v>0.1060862496961958</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
         <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0.1038540942648629</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1318263427938593</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.129976717772356</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0.02683384308305879</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.05700556672170275</v>
+        <v>0.02556803323831543</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.07927645895833138</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.06842268743063633</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0.05993781773008204</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0.007370990906041244</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.008832350674220767</v>
+        <v>-0.00174222058358812</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.06942923817867627</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.001543126283749217</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.0270275612252047</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.03297968427095651</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.04694349267274449</v>
+        <v>-0.08622357198756364</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.0883500589548244</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.04864314265208998</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0.06090014328353884</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0.008126848658402783</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.04017272680985468</v>
+        <v>-0.005188538148519289</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
@@ -5305,52 +5305,52 @@
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.03192654407197529</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.06851578783708522</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0.01806387145174362</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.05839160801293795</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.05221793877510372</v>
+        <v>0.03828391387821059</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0.03574473965862891</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0</v>
+        <v>-0.03758317981213508</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.04280964121899949</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>0.06052461104964519</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.05992697219828216</v>
+        <v>-0.03833446326475788</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,52 +5359,52 @@
         <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.01359025223943058</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>-0.05442476172407507</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.02439563184346617</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0.01820028796003152</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01100910508317682</v>
+        <v>0.03268597666039669</v>
       </c>
       <c r="EB9" t="n">
         <v>-0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.08066930586282546</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.07101584452534648</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.08279742905326042</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.003949653990835863</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.006573199670118749</v>
+        <v>0.06245577001313934</v>
       </c>
       <c r="EK9" t="n">
         <v>-0</v>
@@ -5416,76 +5416,76 @@
         <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.03024263860047922</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>0.001217797657538762</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.03666756585527946</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0.003610769204830474</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.005677675582192863</v>
+        <v>-0.03441009876344996</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.09286703523022666</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05125216831541067</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0.05602675184587234</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>-0.004213261535751177</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01781165461242806</v>
+        <v>0.009170404765505871</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.07332473916827877</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.007312756378878193</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.05949982738567703</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>0.02002750736334317</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.1190283443578388</v>
+        <v>-0.05103089366939924</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
@@ -5494,55 +5494,55 @@
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.03544512470055917</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.04224751003496299</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0.04254383308984559</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>0.06318730042829301</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.05715131315041103</v>
+        <v>0.01581456421084561</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.03703591070992687</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.01914538716685472</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.07800137298738401</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0</v>
+        <v>-0.04661998742545439</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>0</v>
